--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CBA9B-BCE0-4387-A3E5-01AF48BA3D52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FF1C5-EF6C-47D9-9238-FBC5AC05A12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="6855" windowWidth="18225" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2D20A8B8-9A59-4156-8EA9-AD3500040345}">
@@ -42,7 +42,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -464,16 +464,29 @@
   </si>
   <si>
     <t>marcelinoll@hotmail.es</t>
+  </si>
+  <si>
+    <t>www.aws.com</t>
+  </si>
+  <si>
+    <t>Puntual</t>
+  </si>
+  <si>
+    <t>Servidor Cloud AWS para Back y BBDD</t>
+  </si>
+  <si>
+    <t>Ana Román Rodríguez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +544,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -571,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,9 +618,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -881,11 +913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC681F9-A6CF-4A0D-BC77-4953A2588DD7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="3" width="12.46484375" customWidth="1"/>
@@ -1020,13 +1052,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B40945-1453-4B67-9051-6B4B39BE5CD6}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -1037,12 +1069,12 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.796875" customWidth="1"/>
     <col min="9" max="9" width="14.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" customWidth="1"/>
     <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
@@ -1080,7 +1112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1109,7 +1141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1134,6 +1166,50 @@
       <c r="K3" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.79</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1156,8 +1232,10 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B8C6BBCA-BB26-489B-95F7-324EF1C74666}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{7F22B18C-6E66-4638-8260-DEC2CA498390}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://www.aws.com/" xr:uid="{5A89D378-175D-4605-BA35-09E0C6C233BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1247,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" bestFit="1" customWidth="1"/>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FF1C5-EF6C-47D9-9238-FBC5AC05A12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A7DEE-6E39-44F8-A1FE-4FD63BFE33B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="6855" windowWidth="18225" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
     <sheet name="Gastos-Ingresos" sheetId="4" r:id="rId2"/>
-    <sheet name="Merchandising" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Merchandising" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -476,6 +477,138 @@
   </si>
   <si>
     <t>Ana Román Rodríguez</t>
+  </si>
+  <si>
+    <t>Personas protestantes</t>
+  </si>
+  <si>
+    <t>¿Por que se le conoce?</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Jesús candel</t>
+  </si>
+  <si>
+    <t>Sanidad</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Enrique marin</t>
+  </si>
+  <si>
+    <t>Amigo de Jesus Candel</t>
+  </si>
+  <si>
+    <t>Luis escribano</t>
+  </si>
+  <si>
+    <t>Socorro ricoi</t>
+  </si>
+  <si>
+    <t>Luis Gonzalo segura</t>
+  </si>
+  <si>
+    <t>Ejercito español</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Ana garrido</t>
+  </si>
+  <si>
+    <t>Denunciante de corrupción</t>
+  </si>
+  <si>
+    <t>Pam Bartlett Quintanilla</t>
+  </si>
+  <si>
+    <t>Julio Martínez</t>
+  </si>
+  <si>
+    <t>www.FIBGAR.org</t>
+  </si>
+  <si>
+    <t>Hervé Falciani</t>
+  </si>
+  <si>
+    <t>www.xnet.org</t>
+  </si>
+  <si>
+    <t>Plataforma para denuncias anonimas</t>
+  </si>
+  <si>
+    <t>Azahara Peralta</t>
+  </si>
+  <si>
+    <t>Jefa de acuamed</t>
+  </si>
+  <si>
+    <t>Plataforma por la honestidad</t>
+  </si>
+  <si>
+    <t>Jesús cintora</t>
+  </si>
+  <si>
+    <t>Periodismo</t>
+  </si>
+  <si>
+    <t>Elpidio José silva</t>
+  </si>
+  <si>
+    <t>Juez</t>
+  </si>
+  <si>
+    <t>Mercedes Alaya</t>
+  </si>
+  <si>
+    <t>Arantxa Mejías</t>
+  </si>
+  <si>
+    <t>Denunciante de corrupción de la Gurtel</t>
+  </si>
+  <si>
+    <t>Denunciante de los fondos buitre en Madrid</t>
+  </si>
+  <si>
+    <t>Consuelo García del Cid Guerra</t>
+  </si>
+  <si>
+    <t>Denunciante del robo de niños por los servicios sociales</t>
+  </si>
+  <si>
+    <t>Juanjo Romero </t>
+  </si>
+  <si>
+    <t>Denunciante corrupción en Aena</t>
+  </si>
+  <si>
+    <t>Lola Mesa</t>
+  </si>
+  <si>
+    <t>Denunciante fraude en la Tesorería General de la Seguridad Social de Cádiz</t>
+  </si>
+  <si>
+    <t>Roberto Macías</t>
+  </si>
+  <si>
+    <t>Denunciante fraude UGT Andalucía</t>
+  </si>
+  <si>
+    <t>Sonia Peral</t>
+  </si>
+  <si>
+    <t>Denunciante corrupción sistema educativo Málaga</t>
+  </si>
+  <si>
+    <t>María Serrano</t>
+  </si>
+  <si>
+    <t>denunciante corrupción en la Guardia Civil</t>
   </si>
 </sst>
 </file>
@@ -486,7 +619,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +684,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Droid Serif"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -591,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +789,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,7 +1082,7 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="3" width="12.46484375" customWidth="1"/>
@@ -927,7 +1092,7 @@
     <col min="7" max="7" width="39.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -950,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -970,7 +1135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -984,7 +1149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" s="12" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1004,7 +1169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1021,7 +1186,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1054,11 +1219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B40945-1453-4B67-9051-6B4B39BE5CD6}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -1074,7 +1239,7 @@
     <col min="12" max="12" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="20.65" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
@@ -1112,7 +1277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1141,7 +1306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1167,7 +1332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="15.4" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
@@ -1240,6 +1405,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9335C196-F225-4E87-95A1-0275CF4ADB2F}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A8" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A9" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A10" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A14" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="21" customFormat="1" ht="13.15">
+      <c r="A16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A17" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A23" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A24" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="13.15"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="http://www.fibgar.org/" xr:uid="{6712F7B7-F8C0-4F02-A701-A8B8C69FF05D}"/>
+    <hyperlink ref="A12" r:id="rId2" display="http://www.xnet.org/" xr:uid="{DE85C4D3-B8F5-4453-AD33-A8B1D94E9132}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
@@ -1247,7 +1680,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" bestFit="1" customWidth="1"/>
@@ -1267,7 +1700,7 @@
     <col min="16" max="16" width="23.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" ht="16.5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1372,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1398,7 +1831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>36</v>
       </c>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A7DEE-6E39-44F8-A1FE-4FD63BFE33B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE0280-F3F3-491D-95B2-8E92747F695C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -609,6 +609,21 @@
   </si>
   <si>
     <t>denunciante corrupción en la Guardia Civil</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominio  </t>
+  </si>
+  <si>
+    <t>Dominio comprado: www.yourights.com</t>
+  </si>
+  <si>
+    <t>Dominio comprado: www.rightsp.es</t>
+  </si>
+  <si>
+    <t>Dominio comprado: www.rightsp.com</t>
   </si>
 </sst>
 </file>
@@ -750,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,6 +810,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1217,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B40945-1453-4B67-9051-6B4B39BE5CD6}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
@@ -1305,49 +1322,53 @@
       <c r="J2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="12" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="25">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.4" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -1376,21 +1397,85 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43779</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{62E81841-9C5C-4C63-BD9E-87B8E78E57EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{62E81841-9C5C-4C63-BD9E-87B8E78E57EA}">
       <formula1>"Gasto,Ingreso"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{919354D9-16FE-491E-9E74-3EF1EAAA0EAA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{919354D9-16FE-491E-9E74-3EF1EAAA0EAA}">
       <formula1>"Mantenimiento Web,Publicidad,Trabajador Programador,Trabajador Estándar,Otros"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{DA07FF75-50FD-4F12-AD60-580FF956A240}">
       <formula1>"Publicidad Web, Organizador de Eventos, Colaboradores,Donaciones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2 G3" xr:uid="{08B14A2B-D4E7-4134-9323-B3AC5F34E0E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2 G3:G6" xr:uid="{08B14A2B-D4E7-4134-9323-B3AC5F34E0E6}">
       <formula1>"Puntual,Diario,Semanal,Mensual,Anual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{7D126649-AC43-4186-8781-515017E7452D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{7D126649-AC43-4186-8781-515017E7452D}">
       <formula1>"Pagado,Propuesta"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1398,9 +1483,11 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B8C6BBCA-BB26-489B-95F7-324EF1C74666}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{7F22B18C-6E66-4638-8260-DEC2CA498390}"/>
     <hyperlink ref="E4" r:id="rId3" display="http://www.aws.com/" xr:uid="{5A89D378-175D-4605-BA35-09E0C6C233BB}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B5FE196E-3127-41DD-AABB-90BCF384B4CA}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{EDEBC458-69D3-4E2F-8AE6-0C5FFBFDA5DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1408,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9335C196-F225-4E87-95A1-0275CF4ADB2F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE0280-F3F3-491D-95B2-8E92747F695C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF46231-F2D0-4952-A940-43123E579621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -624,6 +624,18 @@
   </si>
   <si>
     <t>Dominio comprado: www.rightsp.com</t>
+  </si>
+  <si>
+    <t>05309983L</t>
+  </si>
+  <si>
+    <t>Dni</t>
+  </si>
+  <si>
+    <t>50772991P</t>
+  </si>
+  <si>
+    <t>Román Rodriguez</t>
   </si>
 </sst>
 </file>
@@ -1093,23 +1105,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC681F9-A6CF-4A0D-BC77-4953A2588DD7}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="21.53125" customWidth="1"/>
-    <col min="7" max="7" width="39.9296875" customWidth="1"/>
+    <col min="3" max="4" width="12.46484375" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="21.53125" customWidth="1"/>
+    <col min="8" max="8" width="39.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1120,19 +1132,22 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1142,31 +1157,34 @@
       <c r="C2">
         <v>654616868</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="C3">
         <v>633657500</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1">
+    <row r="4" spans="1:8" s="12" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1176,56 +1194,62 @@
       <c r="C4" s="12">
         <v>608939884</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>78</v>
       </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
       <c r="C5">
         <v>647262951</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>81</v>
       </c>
       <c r="C6">
         <v>665156550</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B105FA9D-7120-4DDF-A8FA-11DA2341437D}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{641F8232-60FD-483C-83A8-A2E4F976CF18}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{2BC94984-6DD2-4F6D-A71A-4C797838D279}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{76B3989F-54B1-4F63-97CB-737C576DE7D1}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B105FA9D-7120-4DDF-A8FA-11DA2341437D}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{641F8232-60FD-483C-83A8-A2E4F976CF18}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{2BC94984-6DD2-4F6D-A71A-4C797838D279}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{76B3989F-54B1-4F63-97CB-737C576DE7D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1236,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B40945-1453-4B67-9051-6B4B39BE5CD6}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF46231-F2D0-4952-A940-43123E579621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62677AA0-30AD-4EDB-8AF7-38FDD58819B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="4178" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3398" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
     <sheet name="Gastos-Ingresos" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Personas Protestantes" sheetId="5" r:id="rId3"/>
     <sheet name="Merchandising" sheetId="1" r:id="rId4"/>
+    <sheet name="Contraseñas" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2D20A8B8-9A59-4156-8EA9-AD3500040345}">
@@ -43,7 +44,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -636,6 +637,33 @@
   </si>
   <si>
     <t>Román Rodriguez</t>
+  </si>
+  <si>
+    <t>Pruebas DB</t>
+  </si>
+  <si>
+    <t>Redes Sociales</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Relacionado al:</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Tus Derechos</t>
+  </si>
+  <si>
+    <t>tusderechos0000</t>
+  </si>
+  <si>
+    <t>Tel: 689782048</t>
   </si>
 </sst>
 </file>
@@ -646,7 +674,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +765,23 @@
       <color rgb="FF222222"/>
       <name val="Droid Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +806,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -777,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,9 +873,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1107,11 +1164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC681F9-A6CF-4A0D-BC77-4953A2588DD7}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="4" width="12.46484375" customWidth="1"/>
@@ -1264,7 +1321,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -1520,10 +1577,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -1791,7 +1848,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" bestFit="1" customWidth="1"/>
@@ -1991,4 +2048,76 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E65B2-7D82-4470-A1B5-E3C3AB90E7B7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62677AA0-30AD-4EDB-8AF7-38FDD58819B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC83F0B-2454-42ED-A8F2-BC32924265E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3398" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>Tel: 689782048</t>
+  </si>
+  <si>
+    <t>@tusderechos_eu</t>
+  </si>
+  <si>
+    <t>Compartir</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E65B2-7D82-4470-A1B5-E3C3AB90E7B7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2064,9 +2070,10 @@
     <col min="6" max="6" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="15.796875" customWidth="1"/>
     <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="27" t="s">
         <v>140</v>
       </c>
@@ -2077,8 +2084,9 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
@@ -2097,8 +2105,11 @@
       <c r="H2" s="26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="E3" t="s">
         <v>142</v>
       </c>
@@ -2110,12 +2121,15 @@
       </c>
       <c r="H3" t="s">
         <v>147</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC83F0B-2454-42ED-A8F2-BC32924265E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC46A1C-BEB2-493C-A357-41DEDAF27667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3398" yWindow="4178" windowWidth="18225" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8648" yWindow="1778" windowWidth="14129" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>Compartir</t>
+  </si>
+  <si>
+    <t>alvaro1@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -2061,11 +2064,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="15.796875" customWidth="1"/>
@@ -2110,6 +2114,12 @@
       </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
       <c r="E3" t="s">
         <v>142</v>
       </c>
@@ -2131,7 +2141,10 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{37D7760E-95E0-489D-ADB6-DE5455B2C5F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC46A1C-BEB2-493C-A357-41DEDAF27667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BF7FC-0390-4F3D-99E5-39ED61C1ABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8648" yWindow="1778" windowWidth="14129" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>alvaro1@hotmail.com</t>
+  </si>
+  <si>
+    <t>alvaro2@hotmail.com</t>
+  </si>
+  <si>
+    <t>alvaro3@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -2061,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E65B2-7D82-4470-A1B5-E3C3AB90E7B7}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2136,6 +2142,22 @@
         <v>149</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2143,8 +2165,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{37D7760E-95E0-489D-ADB6-DE5455B2C5F3}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{726608B7-D543-444A-BEDC-722A9C1ADF3E}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{2BF61449-A342-41FF-B24D-F65D1BEF03DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BF7FC-0390-4F3D-99E5-39ED61C1ABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D309F632-65AF-4C55-95F2-3DFBE43B1730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8648" yWindow="1778" windowWidth="14129" windowHeight="11422" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8648" yWindow="1778" windowWidth="14129" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -679,6 +679,33 @@
   </si>
   <si>
     <t>alvaro3@hotmail.com</t>
+  </si>
+  <si>
+    <t>Novio de Ana Roman</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>De la Torre</t>
+  </si>
+  <si>
+    <t>atorre@fiupm.es</t>
+  </si>
+  <si>
+    <t>Garcia Dopico</t>
+  </si>
+  <si>
+    <t>adopico@fiupm.es</t>
+  </si>
+  <si>
+    <t>Director de area de informatica de la UPM (Informatica)</t>
+  </si>
+  <si>
+    <t>Profesor de la UPM (Informatica)</t>
+  </si>
+  <si>
+    <t>910672845 / 910673072</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC681F9-A6CF-4A0D-BC77-4953A2588DD7}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
@@ -1315,6 +1342,43 @@
       <c r="G6" t="s">
         <v>54</v>
       </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1322,9 +1386,11 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{641F8232-60FD-483C-83A8-A2E4F976CF18}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{2BC94984-6DD2-4F6D-A71A-4C797838D279}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{76B3989F-54B1-4F63-97CB-737C576DE7D1}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{14ADCD8A-66CE-44FB-8427-A496DCA41E46}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{4B932909-5B4C-41AF-8D14-78A829104A92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2069,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E65B2-7D82-4470-A1B5-E3C3AB90E7B7}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D309F632-65AF-4C55-95F2-3DFBE43B1730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB60B8-BF62-4578-933F-3247185D9812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8648" yWindow="1778" windowWidth="14129" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socios-Personal" sheetId="3" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="183">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -597,9 +597,6 @@
     <t>Roberto Macías</t>
   </si>
   <si>
-    <t>Denunciante fraude UGT Andalucía</t>
-  </si>
-  <si>
     <t>Sonia Peral</t>
   </si>
   <si>
@@ -706,6 +703,69 @@
   </si>
   <si>
     <t>910672845 / 910673072</t>
+  </si>
+  <si>
+    <t>Denunciante caso Eres, fraude UGT Andalucía</t>
+  </si>
+  <si>
+    <t>Lara Macias</t>
+  </si>
+  <si>
+    <t>Pesidenta de Corruptil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simona Levi </t>
+  </si>
+  <si>
+    <t>Plataforma Xnet</t>
+  </si>
+  <si>
+    <t>Stefan Grueso</t>
+  </si>
+  <si>
+    <t>Asociación filtrale.org</t>
+  </si>
+  <si>
+    <t>Manuel Viloria</t>
+  </si>
+  <si>
+    <t>Asociacion transparecia internacional, Catedrático Derecho Político de la Universidad Rey Juan  Carlos</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>de la Riva</t>
+  </si>
+  <si>
+    <t>martin7557@gmail.com</t>
+  </si>
+  <si>
+    <t>yourights2020</t>
+  </si>
+  <si>
+    <t>yourights1@gmail.com</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouRights </t>
+  </si>
+  <si>
+    <t>Contraseñas generales</t>
+  </si>
+  <si>
+    <t>anaromanrodriguez1987</t>
+  </si>
+  <si>
+    <t>mrivar</t>
   </si>
 </sst>
 </file>
@@ -716,7 +776,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +882,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -868,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +989,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1204,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC681F9-A6CF-4A0D-BC77-4953A2588DD7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
@@ -1215,12 +1287,13 @@
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="4" width="12.46484375" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="21.53125" customWidth="1"/>
-    <col min="8" max="8" width="39.9296875" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="21.53125" customWidth="1"/>
+    <col min="9" max="9" width="39.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1231,22 +1304,25 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1257,33 +1333,34 @@
         <v>654616868</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="C3">
         <v>633657500</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1">
+    <row r="4" spans="1:9" s="12" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1296,37 +1373,41 @@
       <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>647262951</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1336,48 +1417,71 @@
       <c r="E6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5"/>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>695063486</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H9" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1388,9 +1492,11 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{76B3989F-54B1-4F63-97CB-737C576DE7D1}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{14ADCD8A-66CE-44FB-8427-A496DCA41E46}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{4B932909-5B4C-41AF-8D14-78A829104A92}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{73DBA07D-B4CC-427C-B1BB-2307F8E773FB}"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://github.com/anaromanrodriguez1987" xr:uid="{808C08B9-EF78-4A09-A71B-7B8529F2E1F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1485,7 +1591,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="12" customFormat="1">
@@ -1576,10 +1682,10 @@
         <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
         <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
       </c>
       <c r="I5" s="10">
         <v>1.5</v>
@@ -1588,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1608,10 +1714,10 @@
         <v>71</v>
       </c>
       <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
         <v>131</v>
-      </c>
-      <c r="H6" t="s">
-        <v>132</v>
       </c>
       <c r="I6" s="10">
         <v>7.5</v>
@@ -1620,7 +1726,7 @@
         <v>66</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1655,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9335C196-F225-4E87-95A1-0275CF4ADB2F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
@@ -1885,32 +1991,63 @@
         <v>101</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="13.15">
       <c r="A23" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="13.15">
       <c r="A24" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="21" customFormat="1" ht="13.15"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="13.15">
+      <c r="A25" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="http://www.fibgar.org/" xr:uid="{6712F7B7-F8C0-4F02-A701-A8B8C69FF05D}"/>
@@ -2133,108 +2270,156 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E65B2-7D82-4470-A1B5-E3C3AB90E7B7}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="B7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="F7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="B8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>1234</v>
+      </c>
+      <c r="F9" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B3">
+      <c r="C10">
         <v>1234</v>
       </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B4">
+      <c r="C11">
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5">
-        <v>1234</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{37D7760E-95E0-489D-ADB6-DE5455B2C5F3}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{726608B7-D543-444A-BEDC-722A9C1ADF3E}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{2BF61449-A342-41FF-B24D-F65D1BEF03DC}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{37D7760E-95E0-489D-ADB6-DE5455B2C5F3}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{726608B7-D543-444A-BEDC-722A9C1ADF3E}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{2BF61449-A342-41FF-B24D-F65D1BEF03DC}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{402677BA-A105-4FDC-9E1C-AD52EEF2DDD9}"/>
+    <hyperlink ref="B4" r:id="rId5" display="yourights1@gmail.com" xr:uid="{1AF2505C-A0CD-4778-BED9-95257E0C19F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documentación/Documentación YouRights/Documentación.xlsx
+++ b/Documentación/Documentación YouRights/Documentación.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB60B8-BF62-4578-933F-3247185D9812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD02D5C-727C-4FFA-ABF3-48ABB1250006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
   <si>
     <t>Fecha revisión</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>mrivar</t>
+  </si>
+  <si>
+    <t>yourRights2019</t>
+  </si>
+  <si>
+    <t>alvaro</t>
   </si>
 </sst>
 </file>
@@ -982,6 +988,9 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,9 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,7 +1285,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
@@ -2273,7 +2279,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2294,7 +2300,7 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2308,10 +2314,10 @@
       <c r="A3" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2319,29 +2325,33 @@
       <c r="A4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="F7" s="27" t="s">
+      <c r="C7" s="31"/>
+      <c r="F7" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="26" t="s">
